--- a/ONCHO/Entomological survey Survey/Nigeria/2024/Adamawa/ng_oncho_2026_3_flies_sort_adw.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/Adamawa/ng_oncho_2026_3_flies_sort_adw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\Adamawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFAACF6-B082-4895-BC4B-698E8D5D0161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E8349F-4DE7-41A1-8E1A-C1B98A9205C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="199">
   <si>
     <t>type</t>
   </si>
@@ -351,165 +351,12 @@
     <t>state</t>
   </si>
   <si>
-    <t>BAUCHI</t>
-  </si>
-  <si>
     <t>lga</t>
   </si>
   <si>
-    <t>ALKALERI</t>
-  </si>
-  <si>
-    <t>BOGORO</t>
-  </si>
-  <si>
-    <t>DARAZO</t>
-  </si>
-  <si>
-    <t>DASS</t>
-  </si>
-  <si>
-    <t>GAMAWA</t>
-  </si>
-  <si>
-    <t>GANJUWA</t>
-  </si>
-  <si>
-    <t>GIADE</t>
-  </si>
-  <si>
-    <t>KIRFI</t>
-  </si>
-  <si>
-    <t>MISAU</t>
-  </si>
-  <si>
-    <t>NINGI</t>
-  </si>
-  <si>
-    <t>SHIRA</t>
-  </si>
-  <si>
-    <t>TAFAWA-BALEWA</t>
-  </si>
-  <si>
-    <t>TORO</t>
-  </si>
-  <si>
-    <t>WARJI</t>
-  </si>
-  <si>
-    <t>ZAKI</t>
-  </si>
-  <si>
     <t>community</t>
   </si>
   <si>
-    <t>BAKUREJI</t>
-  </si>
-  <si>
-    <t>DAGARAU</t>
-  </si>
-  <si>
-    <t>KWALA</t>
-  </si>
-  <si>
-    <t>YELWAN GALAMBI</t>
-  </si>
-  <si>
-    <t>BIRIM</t>
-  </si>
-  <si>
-    <t>MIRI</t>
-  </si>
-  <si>
-    <t>DOGON KANIA</t>
-  </si>
-  <si>
-    <t>SABON GARI</t>
-  </si>
-  <si>
-    <t>DARRARI</t>
-  </si>
-  <si>
-    <t>LIRINI</t>
-  </si>
-  <si>
-    <t>DADINGA</t>
-  </si>
-  <si>
-    <t>MIYA B</t>
-  </si>
-  <si>
-    <t>NASARAWA</t>
-  </si>
-  <si>
-    <t>CHINKANI</t>
-  </si>
-  <si>
-    <t>BARA</t>
-  </si>
-  <si>
-    <t>BUNDURU</t>
-  </si>
-  <si>
-    <t>FAFAN FULANI</t>
-  </si>
-  <si>
-    <t>ZINDI/MISAU</t>
-  </si>
-  <si>
-    <t>KAFIN LEMO</t>
-  </si>
-  <si>
-    <t>KAFIN ZAKI</t>
-  </si>
-  <si>
-    <t>RAFIN CHIAWO</t>
-  </si>
-  <si>
-    <t>SAMA</t>
-  </si>
-  <si>
-    <t>UNGUWAR MADAIKI</t>
-  </si>
-  <si>
-    <t>BANGIRE</t>
-  </si>
-  <si>
-    <t>DINDIBUS</t>
-  </si>
-  <si>
-    <t>DISINA B</t>
-  </si>
-  <si>
-    <t>ZIGAU</t>
-  </si>
-  <si>
-    <t>KARDAM B</t>
-  </si>
-  <si>
-    <t>GUMAU</t>
-  </si>
-  <si>
-    <t>LAME</t>
-  </si>
-  <si>
-    <t>RISHI</t>
-  </si>
-  <si>
-    <t>RUHU</t>
-  </si>
-  <si>
-    <t>GABANGA A</t>
-  </si>
-  <si>
-    <t>SANDIGALOU</t>
-  </si>
-  <si>
-    <t>TIKIRZE</t>
-  </si>
-  <si>
     <t>select_one state</t>
   </si>
   <si>
@@ -534,124 +381,259 @@
     <t>lga = ${r_lga}</t>
   </si>
   <si>
-    <t>ng_oncho_2026_3_flies_sort_bau</t>
-  </si>
-  <si>
-    <t>(Bauchi) 3. Blackfly Sorting Modules</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_001</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_002</t>
-  </si>
-  <si>
-    <t>BAU_ALK_N_003</t>
-  </si>
-  <si>
-    <t>BAU_BAU_N_004</t>
-  </si>
-  <si>
-    <t>BAU_BAU_N_005</t>
-  </si>
-  <si>
-    <t>BAU_BOG_N_006</t>
-  </si>
-  <si>
-    <t>BAU_DAR_N_007</t>
-  </si>
-  <si>
-    <t>BAU_DAS_N_008</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_009</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_010</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_011</t>
-  </si>
-  <si>
-    <t>BAU_GAM_N_012</t>
-  </si>
-  <si>
-    <t>BAU_KIR_N_013</t>
-  </si>
-  <si>
-    <t>BAU_KIR_N_014</t>
-  </si>
-  <si>
-    <t>BAU_MIS_N_015</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_016</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_017</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_018</t>
-  </si>
-  <si>
-    <t>BAU_NIN_N_019</t>
-  </si>
-  <si>
-    <t>BAU_SHI_N_020</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_021</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_022</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_023</t>
-  </si>
-  <si>
-    <t>BAU_TOR_N_024</t>
-  </si>
-  <si>
-    <t>BAU_ZAK_N_025</t>
-  </si>
-  <si>
-    <t>BAU_ZAK_N_026</t>
-  </si>
-  <si>
-    <t>BAU_KIR_M_027</t>
-  </si>
-  <si>
-    <t>BAU_ALK_M_028</t>
-  </si>
-  <si>
-    <t>BAU_GIA_M_029</t>
-  </si>
-  <si>
-    <t>BAU_GAN_M_030</t>
-  </si>
-  <si>
-    <t>BAU_NIN_M_031</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_032</t>
-  </si>
-  <si>
-    <t>BAU_TAF_M_033</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_034</t>
-  </si>
-  <si>
-    <t>BAU_WAR_M_035</t>
-  </si>
-  <si>
-    <t>BAU_SHI_M_036</t>
-  </si>
-  <si>
     <t>select_one site_id</t>
   </si>
   <si>
     <t>community = ${r_community}</t>
+  </si>
+  <si>
+    <t>ADAMAWA</t>
+  </si>
+  <si>
+    <t>DEMSA</t>
+  </si>
+  <si>
+    <t>FUFORE</t>
+  </si>
+  <si>
+    <t>GOMBI</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>JADA</t>
+  </si>
+  <si>
+    <t>LAMURDE</t>
+  </si>
+  <si>
+    <t>MADAGALI</t>
+  </si>
+  <si>
+    <t>MAIHA</t>
+  </si>
+  <si>
+    <t>MICHIKA</t>
+  </si>
+  <si>
+    <t>MUBI NORTH</t>
+  </si>
+  <si>
+    <t>MUBI SOUTH</t>
+  </si>
+  <si>
+    <t>NUMAN</t>
+  </si>
+  <si>
+    <t>SHELLENG</t>
+  </si>
+  <si>
+    <t>SONG</t>
+  </si>
+  <si>
+    <t>TOUNGO</t>
+  </si>
+  <si>
+    <t>YOLA NORTH</t>
+  </si>
+  <si>
+    <t>DILLI</t>
+  </si>
+  <si>
+    <t>KARLAHI</t>
+  </si>
+  <si>
+    <t>KOCHEL</t>
+  </si>
+  <si>
+    <t>WURO BABBA</t>
+  </si>
+  <si>
+    <t>GUYAKU</t>
+  </si>
+  <si>
+    <t>PUBA</t>
+  </si>
+  <si>
+    <t>ZHEDINYI</t>
+  </si>
+  <si>
+    <t>TISEL</t>
+  </si>
+  <si>
+    <t>BOLLERE</t>
+  </si>
+  <si>
+    <t>DAMAI</t>
+  </si>
+  <si>
+    <t>KWATAMA DAFFA</t>
+  </si>
+  <si>
+    <t>JAMTARI</t>
+  </si>
+  <si>
+    <t>KAPSULE</t>
+  </si>
+  <si>
+    <t>KASSU</t>
+  </si>
+  <si>
+    <t>SINA MALA</t>
+  </si>
+  <si>
+    <t>MUCHALLA</t>
+  </si>
+  <si>
+    <t>WURO HAMMAGU</t>
+  </si>
+  <si>
+    <t>BOKKI</t>
+  </si>
+  <si>
+    <t>DABEWO</t>
+  </si>
+  <si>
+    <t>BA AWO</t>
+  </si>
+  <si>
+    <t>BARANGA</t>
+  </si>
+  <si>
+    <t>GIDANMBIRI</t>
+  </si>
+  <si>
+    <t>GUMTI</t>
+  </si>
+  <si>
+    <t>KOGIN BABA1</t>
+  </si>
+  <si>
+    <t>KOGIN BABA2</t>
+  </si>
+  <si>
+    <t>MAYOBIRIJI</t>
+  </si>
+  <si>
+    <t>NATRIDE</t>
+  </si>
+  <si>
+    <t>TIMBO</t>
+  </si>
+  <si>
+    <t>WURO JATAU</t>
+  </si>
+  <si>
+    <t>YOLA (DOUBELI)</t>
+  </si>
+  <si>
+    <t>ADA_GOM_N_001</t>
+  </si>
+  <si>
+    <t>ADA_HON_N_002</t>
+  </si>
+  <si>
+    <t>ADA_HON_N_003</t>
+  </si>
+  <si>
+    <t>ADA_MIC_M_004</t>
+  </si>
+  <si>
+    <t>ADA_MUN_N_005</t>
+  </si>
+  <si>
+    <t>ADA_MUS_M_006</t>
+  </si>
+  <si>
+    <t>ADA_MAD_N_007</t>
+  </si>
+  <si>
+    <t>ADA_MAD_M_008</t>
+  </si>
+  <si>
+    <t>ADA_MAD_M_009</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_010</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_011</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_012</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_013</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_014</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_015</t>
+  </si>
+  <si>
+    <t>ADA_DEM_N_016</t>
+  </si>
+  <si>
+    <t>ADA_JAD_N_017</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_018</t>
+  </si>
+  <si>
+    <t>ADA_DEM_N_019</t>
+  </si>
+  <si>
+    <t>ADA_SHE_N_020</t>
+  </si>
+  <si>
+    <t>ADA_LAM_N_021</t>
+  </si>
+  <si>
+    <t>ADA_MAI_N_022</t>
+  </si>
+  <si>
+    <t>ADA_SON_N_023</t>
+  </si>
+  <si>
+    <t>ADA_SON_N_024</t>
+  </si>
+  <si>
+    <t>ADA_FUR_N_025</t>
+  </si>
+  <si>
+    <t>ADA_FUR_N_026</t>
+  </si>
+  <si>
+    <t>ADA_YON_N_027</t>
+  </si>
+  <si>
+    <t>ADA_TOU_N_028</t>
+  </si>
+  <si>
+    <t>ADA_NUM_M_029</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_030</t>
+  </si>
+  <si>
+    <t>ADA_TOU_M_031</t>
+  </si>
+  <si>
+    <t>ADA_FUR_M_032</t>
+  </si>
+  <si>
+    <t>ADA_MAI_M_033</t>
+  </si>
+  <si>
+    <t>ADA_MAI_M_034</t>
+  </si>
+  <si>
+    <t>ng_oncho_2026_3_flies_sort_adw</t>
+  </si>
+  <si>
+    <t>(Adamawa) 3. Blackfly Sorting Modules</t>
   </si>
 </sst>
 </file>
@@ -1205,11 +1187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1301,10 +1283,10 @@
     </row>
     <row r="3" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>102</v>
@@ -1324,10 +1306,10 @@
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>37</v>
@@ -1343,16 +1325,16 @@
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>38</v>
@@ -1368,13 +1350,13 @@
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>72</v>
@@ -1393,7 +1375,7 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="M6" s="8"/>
     </row>
@@ -1865,8 +1847,8 @@
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1890,10 +1872,10 @@
         <v>103</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2066,738 +2048,741 @@
         <v>103</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="s">
         <v>121</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E72" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" t="s">
-        <v>120</v>
+        <v>163</v>
+      </c>
+      <c r="F73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,13 +2790,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F75" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2819,13 +2804,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2833,13 +2818,13 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,13 +2832,13 @@
         <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,13 +2846,13 @@
         <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,13 +2860,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2889,13 +2874,13 @@
         <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2903,13 +2888,13 @@
         <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,13 +2902,13 @@
         <v>72</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,13 +2916,13 @@
         <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,13 +2930,13 @@
         <v>72</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2959,13 +2944,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2973,13 +2958,13 @@
         <v>72</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F87" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,13 +2972,13 @@
         <v>72</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,13 +2986,13 @@
         <v>72</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,13 +3000,13 @@
         <v>72</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F90" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,13 +3014,13 @@
         <v>72</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,13 +3028,13 @@
         <v>72</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F92" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3057,13 +3042,13 @@
         <v>72</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,13 +3056,13 @@
         <v>72</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3085,13 +3070,13 @@
         <v>72</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3099,13 +3084,13 @@
         <v>72</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3113,13 +3098,13 @@
         <v>72</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,13 +3112,13 @@
         <v>72</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,13 +3126,13 @@
         <v>72</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,13 +3140,13 @@
         <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,13 +3154,13 @@
         <v>72</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3183,13 +3168,13 @@
         <v>72</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,13 +3182,13 @@
         <v>72</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3211,13 +3196,13 @@
         <v>72</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,13 +3210,13 @@
         <v>72</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3239,70 +3224,26 @@
         <v>72</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F107" t="s">
-        <v>149</v>
-      </c>
+      <c r="A107" s="23"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F108" t="s">
-        <v>146</v>
-      </c>
+      <c r="A108" s="23"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F109" t="s">
-        <v>154</v>
-      </c>
+      <c r="A109" s="23"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F110" t="s">
-        <v>147</v>
-      </c>
+      <c r="A110" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3314,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3339,10 +3280,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
